--- a/DataBase/chest.xlsx
+++ b/DataBase/chest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\하현우\code\Dev-Dream\HealthTag\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E74408-1BE8-470C-809C-B1BEF703D9FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3012F173-D841-4259-A29F-C1E00A244C39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A695DA9E-BF3B-49CA-A2F5-69BF065E8B38}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{A695DA9E-BF3B-49CA-A2F5-69BF065E8B38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오심</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>심근경색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>위경련</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,6 +94,14 @@
   </si>
   <si>
     <t>호흡곤란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심근경색증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답답함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +472,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -485,13 +485,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -499,139 +499,140 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>